--- a/GetAgent Docs/System Use Cases 2.xlsx
+++ b/GetAgent Docs/System Use Cases 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\Self Projects\GetAgent\GetAgent Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38295765-424D-48C2-ADEE-D00483501EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D3931-F69E-497B-BA0F-A81D643CB24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:D141"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D134" sqref="C134:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
